--- a/참고자료/테이블명세양식(2019-10-02).xlsx
+++ b/참고자료/테이블명세양식(2019-10-02).xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="테이블 명세서" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" calcMode="manual"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,16 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>열 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Column</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -69,19 +65,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_stno</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTEGER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(3)</t>
+    <t>tbl_student</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과코드</t>
+  </si>
+  <si>
+    <t>학과명</t>
+  </si>
+  <si>
+    <t>학과장</t>
+  </si>
+  <si>
+    <t>전화번호</t>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_pro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -89,139 +129,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_student</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_addr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학년</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_grade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTEGER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>키</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_height</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸무게</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_weight</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>별명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_nick</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>별명이유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_nick_rem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VAHRCHAR(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학과번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_dep_no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -830,7 +738,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -841,7 +749,7 @@
   <dimension ref="B1:L11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -849,11 +757,12 @@
     <col min="1" max="1" width="1.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -1495,57 +1404,55 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -1554,21 +1461,23 @@
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1578,16 +1487,16 @@
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -1598,17 +1507,13 @@
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="9"/>
-      <c r="C5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -1619,18 +1524,10 @@
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="9"/>
-      <c r="C6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -1640,18 +1537,10 @@
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="9"/>
-      <c r="C7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -1661,18 +1550,10 @@
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="9"/>
-      <c r="C8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -1682,18 +1563,10 @@
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="9"/>
-      <c r="C9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1703,31 +1576,15 @@
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="9"/>
-      <c r="C10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>47</v>
-      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">

--- a/참고자료/테이블명세양식(2019-10-02).xlsx
+++ b/참고자료/테이블명세양식(2019-10-02).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\oracle\참고자료\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="테이블 명세서" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,125 +24,137 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>오라클</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL 유무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK 테이블 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK 열이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 명세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버킷리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜/시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성유무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_subcjet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_complete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Column</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>데이터 형식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오라클</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL 유무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본키</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>외래키</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK 테이블 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK 열이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_student</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학과코드</t>
-  </si>
-  <si>
-    <t>학과명</t>
-  </si>
-  <si>
-    <t>학과장</t>
-  </si>
-  <si>
-    <t>전화번호</t>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_pro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_tel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
+    <t>데이터형식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(1000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 'N'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_bucket_list</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -396,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,9 +432,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,9 +441,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -465,6 +476,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,21 +752,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -1399,206 +1413,212 @@
     <col min="16141" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="21"/>
+      <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
     </row>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="21"/>
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
+      <c r="D5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
     </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="21"/>
+      <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
     </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="9"/>
-      <c r="C4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="21"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
     </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="9"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="9"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="9"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="8"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="16"/>
     </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="9"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="9"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="9"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
